--- a/Interview Preparation/Plan.xlsx
+++ b/Interview Preparation/Plan.xlsx
@@ -11,8 +11,61 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Item </t>
+  </si>
+  <si>
+    <t>Priority / Sequence</t>
+  </si>
+  <si>
+    <t>Status - Theory</t>
+  </si>
+  <si>
+    <t>Status - Hands on</t>
+  </si>
+  <si>
+    <t>S#</t>
+  </si>
+  <si>
+    <t>Spring Security</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>JWT tokens with OAUTH</t>
+  </si>
+  <si>
+    <t>Find which auth provider used in FTO</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Spring  Boot Metrics</t>
+  </si>
+  <si>
+    <t>Dropwizard Metrics</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Logback</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,8 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,12 +398,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1.2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2.1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>3.1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
